--- a/Humidity-Sensor/DataStreamer for Sensor.xlsx
+++ b/Humidity-Sensor/DataStreamer for Sensor.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITT\Embedded-Projects\Humidity-Sensor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Embedded-Projects\Humidity-Sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0439219D-5E2F-45DA-930C-77B89CFA86D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC1CAD9-94E5-4507-95A5-E88BD54D4B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="2550" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{C656D8DF-C6DC-46B4-AAFD-64DF26D6BADF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{C656D8DF-C6DC-46B4-AAFD-64DF26D6BADF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data In" sheetId="5" r:id="rId2"/>
-    <sheet name="Data Out" sheetId="4" r:id="rId3"/>
-    <sheet name="Settings" sheetId="3" r:id="rId4"/>
-    <sheet name="Manifest" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Data In" sheetId="5" r:id="rId3"/>
+    <sheet name="Data Out" sheetId="4" r:id="rId4"/>
+    <sheet name="Settings" sheetId="3" r:id="rId5"/>
+    <sheet name="Manifest" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="DataChannelCountSetting">Settings!$C$8</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t>Channels</t>
   </si>
@@ -175,16 +176,16 @@
     <t>Historical Data</t>
   </si>
   <si>
-    <t>98DD34C7-F494-4A31-ACDA-9A9F614AF41F</t>
-  </si>
-  <si>
-    <t>{"Channels":[{"Description":null,"Id":null,"IsGhost":false,"Name":null,"Status":"Active","SubChannels":[{"Description":null,"Id":"CH1","IsGhost":false,"Name":"CH1","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH2","IsGhost":false,"Name":"CH2","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH3","IsGhost":false,"Name":"CH3","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH4","IsGhost":false,"Name":"CH4","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH5","IsGhost":false,"Name":"CH5","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH6","IsGhost":false,"Name":"CH6","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH7","IsGhost":false,"Name":"CH7","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH8","IsGhost":false,"Name":"CH8","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH9","IsGhost":false,"Name":"CH9","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH10","IsGhost":false,"Name":"CH10","Status":"Active","SubChannels":[],"UnitOfMeasure":null}],"UnitOfMeasure":null}],"Commands":[],"DataInterval":150,"Id":"98DD34C7-F494-4A31-ACDA-9A9F614AF41F","IsGenerated":true,"Name":"Arduino Uno","Version":null,"BaudRate":9600}</t>
-  </si>
-  <si>
     <t>Breaker trip due to high humidity</t>
   </si>
   <si>
-    <t>Unable to read sensor</t>
+    <t xml:space="preserve"> Breaker trip due to high humidity</t>
+  </si>
+  <si>
+    <t>62295668-A771-4F0A-943F-87363B36D12E</t>
+  </si>
+  <si>
+    <t>{"Channels":[{"Description":null,"Id":null,"IsGhost":false,"Name":null,"Status":"Active","SubChannels":[{"Description":null,"Id":"CH1","IsGhost":false,"Name":"CH1","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH2","IsGhost":false,"Name":"CH2","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH3","IsGhost":false,"Name":"CH3","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH4","IsGhost":false,"Name":"CH4","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH5","IsGhost":false,"Name":"CH5","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH6","IsGhost":false,"Name":"CH6","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH7","IsGhost":false,"Name":"CH7","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH8","IsGhost":false,"Name":"CH8","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH9","IsGhost":false,"Name":"CH9","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH10","IsGhost":false,"Name":"CH10","Status":"Active","SubChannels":[],"UnitOfMeasure":null}],"UnitOfMeasure":null}],"Commands":[],"DataInterval":150,"Id":"62295668-A771-4F0A-943F-87363B36D12E","IsGenerated":true,"Name":"Arduino Uno","Version":null,"BaudRate":9600}</t>
   </si>
 </sst>
 </file>
@@ -587,46 +588,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -634,10 +599,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -672,17 +633,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -691,34 +641,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,9 +655,6 @@
     <xf numFmtId="164" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -758,21 +680,84 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1667,33 +1652,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Avg</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Humidity and Temp</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1707,9 +1665,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1727,619 +1688,244 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.8948081940207924E-2"/>
-          <c:y val="3.6000000000000004E-2"/>
-          <c:w val="0.95818905519692921"/>
-          <c:h val="0.88018255180788973"/>
+          <c:x val="7.9103674540682414E-2"/>
+          <c:y val="0.18560185185185185"/>
+          <c:w val="0.89692825896762907"/>
+          <c:h val="0.72125801983085447"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$1:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:yVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$179</c:f>
+              <c:f>Sheet2!$A$4:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>57.5</c:v>
+                  <c:v>45.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.5</c:v>
+                  <c:v>45.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.2</c:v>
+                  <c:v>45.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.5</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.9</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.5</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.6</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.5</c:v>
+                  <c:v>54.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.3</c:v>
+                  <c:v>59.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.5</c:v>
+                  <c:v>63.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.4</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.8</c:v>
+                  <c:v>69.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.5</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.8</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.5</c:v>
+                  <c:v>67.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.2</c:v>
+                  <c:v>71.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>74.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>73.5</c:v>
+                  <c:v>74.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>74.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74.5</c:v>
+                  <c:v>74.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>73.3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.2</c:v>
+                  <c:v>72.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>75.2</c:v>
+                  <c:v>70.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>69.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>74.5</c:v>
+                  <c:v>68.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>67.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>73.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>70.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22.8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>69.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22.7</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>68.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>22.7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>67.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>22.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>67.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>22.7</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>66.8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>22.6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>66.2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>22.7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>65.7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>22.7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>65.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>22.7</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>64.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>22.6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>63.9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>22.6</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>63.3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>22.6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>61.6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>61.1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>60.7</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>60.3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>59.9</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>59.6</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>58.9</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>58.5</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>58.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>57.9</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>52.8</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>57.1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>56.6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>56.6</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>56.5</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>56.3</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>56.1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>55.9</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>55.7</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>55.5</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>55.4</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>55.2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>54.8</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>54.7</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>54.5</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>54.4</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>54.2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>53.9</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>53.8</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>53.7</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>53.6</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>53.5</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>53.4</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>53.3</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>53.4</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>53.4</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>53.5</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>53.5</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>53.5</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>54.3</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>54.3</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>54.3</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>54.2</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>54.1</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>53.9</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>53.7</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>57.9</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>57.5</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>22.4</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B00-420E-8FF6-997947744763}"/>
+              <c16:uniqueId val="{00000000-FA39-4C1A-A099-3DF84DD913FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2347,84 +1933,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1940275328"/>
-        <c:axId val="1940276288"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1940275328"/>
+        <c:smooth val="0"/>
+        <c:axId val="804853488"/>
+        <c:axId val="804860688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="804853488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> (Each pair is 2 seconds) </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2432,7 +1952,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2448,7 +1968,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2458,12 +1981,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940276288"/>
+        <c:crossAx val="804860688"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1940276288"/>
+        <c:axId val="804860688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,77 +1999,13 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Humidity</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> and Temperature (Humidity is odd, temp is even)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="7.7745383867832843E-3"/>
-              <c:y val="0.36947436048105925"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2551,12 +2013,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2567,7 +2024,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2577,9 +2037,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1940275328"/>
+        <c:crossAx val="804853488"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2599,7 +2059,2310 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1192038495188102E-2"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.88380796150481189"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-401D-4E22-8875-E1122E4CE3FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="796247336"/>
+        <c:axId val="796248416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="796247336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796248416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="796248416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796247336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="3">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB7F-41CB-96E2-A15BBEEFF380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB7F-41CB-96E2-A15BBEEFF380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="824247488"/>
+        <c:axId val="824247848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="824247488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="824247848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="824247848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="824247488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Avg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Temp and Humidity over time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Data In'!$A$8:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45754.432389664355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45754.43241371528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45754.432437777781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45754.432461643519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45754.43248570602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45754.432509756945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45754.432533634259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45754.43255769676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45754.432581747686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45754.432605798611</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45754.432629675925</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45754.43265372685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45754.432677789351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45754.432701655096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45754.43272571759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data In'!$B$8:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D9C-4C23-ABE5-F03D7CD45434}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Data In'!$A$8:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45754.432389664355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45754.43241371528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45754.432437777781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45754.432461643519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45754.43248570602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45754.432509756945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45754.432533634259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45754.43255769676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45754.432581747686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45754.432605798611</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45754.432629675925</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45754.43265372685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45754.432677789351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45754.432701655096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45754.43272571759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data In'!$C$8:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>53.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D9C-4C23-ABE5-F03D7CD45434}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Data In'!$A$8:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45754.432389664355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45754.43241371528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45754.432437777781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45754.432461643519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45754.43248570602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45754.432509756945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45754.432533634259</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45754.43255769676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45754.432581747686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45754.432605798611</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45754.432629675925</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45754.43265372685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45754.432677789351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45754.432701655096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45754.43272571759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data In'!$D$8:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D9C-4C23-ABE5-F03D7CD45434}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="840357232"/>
+        <c:axId val="840356872"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$A$8:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss.00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>45754.432389664355</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45754.43241371528</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45754.432437777781</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45754.432461643519</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45754.43248570602</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45754.432509756945</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45754.432533634259</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45754.43255769676</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45754.432581747686</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45754.432605798611</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45754.432629675925</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45754.43265372685</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45754.432677789351</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45754.432701655096</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45754.43272571759</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$E$8:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2D9C-4C23-ABE5-F03D7CD45434}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$A$8:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss.00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>45754.432389664355</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45754.43241371528</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45754.432437777781</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45754.432461643519</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45754.43248570602</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45754.432509756945</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45754.432533634259</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45754.43255769676</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45754.432581747686</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45754.432605798611</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45754.432629675925</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45754.43265372685</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45754.432677789351</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45754.432701655096</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45754.43272571759</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$F$8:$F$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2D9C-4C23-ABE5-F03D7CD45434}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$A$8:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss.00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>45754.432389664355</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45754.43241371528</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45754.432437777781</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45754.432461643519</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45754.43248570602</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45754.432509756945</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45754.432533634259</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45754.43255769676</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45754.432581747686</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45754.432605798611</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45754.432629675925</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45754.43265372685</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45754.432677789351</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45754.432701655096</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45754.43272571759</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$G$8:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-2D9C-4C23-ABE5-F03D7CD45434}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$A$8:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss.00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>45754.432389664355</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45754.43241371528</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45754.432437777781</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45754.432461643519</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45754.43248570602</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45754.432509756945</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45754.432533634259</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45754.43255769676</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45754.432581747686</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45754.432605798611</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45754.432629675925</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45754.43265372685</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45754.432677789351</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45754.432701655096</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45754.43272571759</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$H$8:$H$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-2D9C-4C23-ABE5-F03D7CD45434}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$A$8:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss.00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>45754.432389664355</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45754.43241371528</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45754.432437777781</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45754.432461643519</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45754.43248570602</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45754.432509756945</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45754.432533634259</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45754.43255769676</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45754.432581747686</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45754.432605798611</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45754.432629675925</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45754.43265372685</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45754.432677789351</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45754.432701655096</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45754.43272571759</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$I$8:$I$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-2D9C-4C23-ABE5-F03D7CD45434}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$A$8:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss.00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>45754.432389664355</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45754.43241371528</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45754.432437777781</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45754.432461643519</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45754.43248570602</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45754.432509756945</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45754.432533634259</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45754.43255769676</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45754.432581747686</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45754.432605798611</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45754.432629675925</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45754.43265372685</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45754.432677789351</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45754.432701655096</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45754.43272571759</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$J$8:$J$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-2D9C-4C23-ABE5-F03D7CD45434}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$A$8:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss.00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>45754.432389664355</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45754.43241371528</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45754.432437777781</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45754.432461643519</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45754.43248570602</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45754.432509756945</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45754.432533634259</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45754.43255769676</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45754.432581747686</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45754.432605798611</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45754.432629675925</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45754.43265372685</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45754.432677789351</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45754.432701655096</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45754.43272571759</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$K$8:$K$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-2D9C-4C23-ABE5-F03D7CD45434}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$A$8:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss.00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>45754.432389664355</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45754.43241371528</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45754.432437777781</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45754.432461643519</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45754.43248570602</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45754.432509756945</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45754.432533634259</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45754.43255769676</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45754.432581747686</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45754.432605798611</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45754.432629675925</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45754.43265372685</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45754.432677789351</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45754.432701655096</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45754.43272571759</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Data In'!$L$8:$L$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-2D9C-4C23-ABE5-F03D7CD45434}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="840357232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="840356872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="840356872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="840357232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2666,28 +4429,154 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2702,7 +4591,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2710,7 +4599,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2718,14 +4607,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -2734,8 +4626,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2758,35 +4651,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2798,19 +4701,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -2819,10 +4724,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2838,16 +4743,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2881,17 +4791,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2900,13 +4810,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2918,20 +4829,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2945,99 +4862,96 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3045,17 +4959,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3064,9 +4978,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3075,13 +4992,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3090,7 +5008,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -3099,7 +5020,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3120,27 +5041,1574 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3149,23 +6617,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FB8D7E-8156-3BF5-9676-1E245548CFCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF59A8E-4F77-11D4-C466-44AC7A8E445F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,6 +6646,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{561E56A5-3701-F19A-B6CD-E9375A45A609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3670BB06-D707-803B-FE28-D073F2D7A726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3203,10 +6743,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
+        <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E94836-584B-DE37-7160-B53B5CEE665E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6DFA80-77A8-6A70-3BB6-C9DAD0E5CB22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +6805,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-CA" sz="1100">
+            <a:rPr lang="en-NZ" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3275,6 +6815,42 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A028DEAD-786A-8F24-A6AE-7D0FB2CCF743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3661,907 +7237,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC56BB91-51FF-49D9-B337-412877BF7069}">
-  <dimension ref="A1:A179"/>
+  <dimension ref="A4:B68"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>46.8</v>
+      </c>
+      <c r="B4">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>46.8</v>
+      </c>
+      <c r="B5">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>46.9</v>
+      </c>
+      <c r="B6">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>46.8</v>
+      </c>
+      <c r="B7">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>46.7</v>
+      </c>
+      <c r="B8">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>46.7</v>
+      </c>
+      <c r="B9">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>48.1</v>
+      </c>
+      <c r="B10">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50.4</v>
+      </c>
+      <c r="B11">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>52.8</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>55.1</v>
+      </c>
+      <c r="B13">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>56.7</v>
+      </c>
+      <c r="B14">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>58.1</v>
+      </c>
+      <c r="B15">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>59.8</v>
+      </c>
+      <c r="B16">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>61.2</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>62.3</v>
+      </c>
+      <c r="B18">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>63.4</v>
+      </c>
+      <c r="B19">
         <v>22.5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="B20">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>64.8</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>65.2</v>
+      </c>
+      <c r="B22">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>65.3</v>
+      </c>
+      <c r="B23">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>65.2</v>
+      </c>
+      <c r="B24">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>64.8</v>
+      </c>
+      <c r="B27">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="B28">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>62.8</v>
+      </c>
+      <c r="B29">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>60.7</v>
+      </c>
+      <c r="B30">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>65.8</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>63.2</v>
+      </c>
+      <c r="B33">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>62.2</v>
+      </c>
+      <c r="B34">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>61.2</v>
+      </c>
+      <c r="B35">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>59.9</v>
+      </c>
+      <c r="B36">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>59.5</v>
+      </c>
+      <c r="B37">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>58.1</v>
+      </c>
+      <c r="B38">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>57.8</v>
+      </c>
+      <c r="B39">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>56.6</v>
+      </c>
+      <c r="B40">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>58.4</v>
+      </c>
+      <c r="B41">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>61.4</v>
+      </c>
+      <c r="B42">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="B43">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>66.3</v>
+      </c>
+      <c r="B44">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>68</v>
+      </c>
+      <c r="B45">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="B46">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="B50">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="B51">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>61.8</v>
+      </c>
+      <c r="B52">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>59.9</v>
+      </c>
+      <c r="B53">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>58.5</v>
+      </c>
+      <c r="B54">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>57.1</v>
+      </c>
+      <c r="B55">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55.9</v>
+      </c>
+      <c r="B56">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54.9</v>
+      </c>
+      <c r="B57">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>53.9</v>
+      </c>
+      <c r="B58">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>52.2</v>
+      </c>
+      <c r="B60">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>51.4</v>
+      </c>
+      <c r="B61">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>50.7</v>
+      </c>
+      <c r="B62">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>49.6</v>
+      </c>
+      <c r="B64">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>49</v>
+      </c>
+      <c r="B65">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>48.6</v>
+      </c>
+      <c r="B66">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>48.3</v>
+      </c>
+      <c r="B67">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>47.9</v>
+      </c>
+      <c r="B68">
+        <v>25.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6267303-28BF-4AE7-8FBF-FE1A812DC95B}">
+  <dimension ref="A4:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>45.7</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45.7</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>45.7</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>45.8</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>45.8</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45.8</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>45.8</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>54.4</v>
+      </c>
+      <c r="B11">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59.9</v>
+      </c>
+      <c r="B12">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>63.9</v>
+      </c>
+      <c r="B13">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="B14">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>69.7</v>
+      </c>
+      <c r="B16">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>69.5</v>
+      </c>
+      <c r="B17">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="B19">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="B20">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="B21">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>74.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74.3</v>
+      </c>
+      <c r="B22">
+        <v>22.7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="B23">
+        <v>22.9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="B24">
+        <v>22.9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73.3</v>
+      </c>
+      <c r="B26">
+        <v>22.9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>74.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>22.9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="B29">
+        <v>22.9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>73.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>69.8</v>
+      </c>
+      <c r="B30">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="B31">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>71.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>70.900000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+        <v>67.7</v>
+      </c>
+      <c r="B32">
         <v>22.7</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>68.599999999999994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>67</v>
+      </c>
+      <c r="B33">
         <v>22.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>67.400000000000006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>66.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>65.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>64.599999999999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>63.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>63.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>61.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>61.1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>60.7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>58.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>57.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>57.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>56.1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>55.7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>55.4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>55.2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>54.8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>53.9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>53.8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>53.4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>53.3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>53.4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>53.4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>54.3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>54.3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>54.3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>54.1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>53.9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>57.9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>22.4</v>
       </c>
     </row>
   </sheetData>
@@ -4570,422 +8053,485 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992FCF83-A11D-44DF-9A1A-CDC67849B341}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="11" width="10.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
-        <v>45752.78485625</v>
-      </c>
-      <c r="B5" s="50">
-        <v>22.2</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="A5" s="18">
+        <v>45754.43272571759</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <v>49</v>
+      </c>
+      <c r="D5" s="17">
+        <v>23.6</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
-        <v>45752.784688252315</v>
-      </c>
-      <c r="B8" s="49">
-        <v>22.2</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="A8" s="21">
+        <v>45754.432389664355</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>53.9</v>
+      </c>
+      <c r="D8" s="19">
+        <v>24.2</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
-        <v>45752.784712187502</v>
-      </c>
-      <c r="B9" s="48">
-        <v>49.6</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="A9" s="22">
+        <v>45754.43241371528</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <v>53.3</v>
+      </c>
+      <c r="D9" s="20">
+        <v>24.2</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
-        <v>45752.784712233799</v>
-      </c>
-      <c r="B10" s="48">
-        <v>22.2</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="A10" s="22">
+        <v>45754.432437777781</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>52.8</v>
+      </c>
+      <c r="D10" s="20">
+        <v>24.1</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
-        <v>45752.784736180554</v>
-      </c>
-      <c r="B11" s="48">
-        <v>49.6</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
+      <c r="A11" s="22">
+        <v>45754.432461643519</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <v>52.3</v>
+      </c>
+      <c r="D11" s="20">
+        <v>24.1</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
-        <v>45752.784736273148</v>
-      </c>
-      <c r="B12" s="48">
-        <v>22.2</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="A12" s="22">
+        <v>45754.43248570602</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
+        <v>51.8</v>
+      </c>
+      <c r="D12" s="20">
+        <v>24.1</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
-        <v>45752.784760162038</v>
-      </c>
-      <c r="B13" s="48">
-        <v>49.6</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="A13" s="22">
+        <v>45754.432509756945</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <v>51.4</v>
+      </c>
+      <c r="D13" s="20">
+        <v>24</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
-        <v>45752.784760254632</v>
-      </c>
-      <c r="B14" s="48">
-        <v>22.2</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="A14" s="22">
+        <v>45754.432533634259</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <v>51</v>
+      </c>
+      <c r="D14" s="20">
+        <v>24</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
-        <v>45752.784784201387</v>
-      </c>
-      <c r="B15" s="48">
-        <v>49.6</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+      <c r="A15" s="22">
+        <v>45754.43255769676</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0</v>
+      </c>
+      <c r="C15" s="20">
+        <v>50.6</v>
+      </c>
+      <c r="D15" s="20">
+        <v>24</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
-        <v>45752.784784247684</v>
-      </c>
-      <c r="B16" s="48">
-        <v>22.2</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
+      <c r="A16" s="22">
+        <v>45754.432581747686</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0</v>
+      </c>
+      <c r="C16" s="20">
+        <v>50.3</v>
+      </c>
+      <c r="D16" s="20">
+        <v>23.9</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
-        <v>45752.784808182871</v>
-      </c>
-      <c r="B17" s="48">
+      <c r="A17" s="22">
+        <v>45754.432605798611</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0</v>
+      </c>
+      <c r="C17" s="20">
+        <v>50</v>
+      </c>
+      <c r="D17" s="20">
+        <v>23.8</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>45754.432629675925</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0</v>
+      </c>
+      <c r="C18" s="20">
+        <v>49.7</v>
+      </c>
+      <c r="D18" s="20">
+        <v>23.8</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>45754.43265372685</v>
+      </c>
+      <c r="B19" s="20">
+        <v>0</v>
+      </c>
+      <c r="C19" s="20">
         <v>49.5</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
-        <v>45752.784808275464</v>
-      </c>
-      <c r="B18" s="48">
-        <v>22.3</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
-        <v>45752.784832164354</v>
-      </c>
-      <c r="B19" s="48">
-        <v>49.6</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
+      <c r="D19" s="20">
+        <v>23.8</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
-        <v>45752.784832256948</v>
-      </c>
-      <c r="B20" s="48">
-        <v>22.2</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="A20" s="22">
+        <v>45754.432677789351</v>
+      </c>
+      <c r="B20" s="20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="20">
+        <v>49.4</v>
+      </c>
+      <c r="D20" s="20">
+        <v>23.7</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
-        <v>45752.784856203703</v>
-      </c>
-      <c r="B21" s="48">
-        <v>49.6</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="A21" s="22">
+        <v>45754.432701655096</v>
+      </c>
+      <c r="B21" s="20">
+        <v>0</v>
+      </c>
+      <c r="C21" s="20">
+        <v>49.2</v>
+      </c>
+      <c r="D21" s="20">
+        <v>23.7</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
-        <v>45752.78485625</v>
-      </c>
-      <c r="B22" s="51">
-        <v>22.2</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="A22" s="23">
+        <v>45754.43272571759</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0</v>
+      </c>
+      <c r="C22" s="24">
+        <v>49</v>
+      </c>
+      <c r="D22" s="24">
+        <v>23.6</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5027,7 +8573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E76EBD-3FD5-429A-A490-893E0E2AF2FE}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -5041,73 +8587,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5118,7 +8664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A162E47-8B44-4C54-A3A8-7352943D15C3}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -5128,86 +8674,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="0.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="30.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="0.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="13">
         <v>150</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="14">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="13">
         <v>15</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="13">
         <v>10</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5216,19 +8762,19 @@
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 10 to 1000" prompt="Minimum duration between data readings, in milliseconds. 10 to 1000" sqref="C4" xr:uid="{A07EAE32-BBE7-4494-A3C9-51513530DF46}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 10 to 1000" prompt="Minimum duration between data readings, in milliseconds. 10 to 1000" sqref="C4" xr:uid="{5A33085D-B51B-48E0-8014-0CD012CD75FE}">
       <formula1>10</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000000" prompt="Number of historical data rows to keep. 1 to 1000000" sqref="C6" xr:uid="{75BC48D6-0EE1-4650-81AE-228DB5029E89}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000000" prompt="Number of historical data rows to keep. 1 to 1000000" sqref="C6" xr:uid="{CADC74E7-BA37-4C3D-97FC-EE2A10B242DD}">
       <formula1>1</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000" prompt="Number of data columns to read. 1 to 1000" sqref="C8" xr:uid="{C5E243CB-DD1B-4EBF-9658-3CC09E30AE3F}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000" prompt="Number of data columns to read. 1 to 1000" sqref="C8" xr:uid="{A8B8D620-F5F4-41FC-A91E-45E3F6090472}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="C10" xr:uid="{9595D173-9AE7-4236-A88C-A9119C570243}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="C10" xr:uid="{F8142FDA-226B-461B-A6A8-D4C1606C77A8}">
       <formula1>"Newest first,Newest last"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5236,7 +8782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452A534A-66A3-4DA6-BBF3-58A039133FDF}">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -5259,244 +8805,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="L1" s="4" t="s">
-        <v>38</v>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="L1" s="37" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="I4" s="5" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="I4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="4">
+      <c r="I5" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="40">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="40">
         <v>9600</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:B15"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
